--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weiss Lab\Documents\Jupyter Notebooks\Curve-Fitting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Documents\Jupyter Notebooks\Curve-Fitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,11 +830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
